--- a/nilai_smp_tidore.xlsx
+++ b/nilai_smp_tidore.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\ppdb2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppdb2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="5085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Swasta</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>terendah</t>
+  </si>
+  <si>
+    <t>BHS.INDO</t>
+  </si>
+  <si>
+    <t>BHS.INGG</t>
+  </si>
+  <si>
+    <t>MATE</t>
   </si>
 </sst>
 </file>
@@ -230,12 +239,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -264,6 +267,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,38 +570,38 @@
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="18">
         <v>2017</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18">
         <v>2016</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18">
         <v>2015</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1177,12 +1186,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="javascript:void(0)"/>
@@ -1206,20 +1215,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="18"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>2017</v>
       </c>
       <c r="C1" s="6">
@@ -1234,7 +1243,7 @@
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>63.4</v>
       </c>
       <c r="C2" s="3">
@@ -1243,13 +1252,13 @@
       <c r="D2" s="3">
         <v>76.459999999999994</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>62.73</v>
       </c>
       <c r="C3" s="3">
@@ -1258,13 +1267,13 @@
       <c r="D3" s="3">
         <v>64.27</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>68.92</v>
       </c>
       <c r="C4" s="3">
@@ -1273,13 +1282,13 @@
       <c r="D4" s="3">
         <v>73.89</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>70.05</v>
       </c>
       <c r="C5" s="3">
@@ -1288,13 +1297,13 @@
       <c r="D5" s="3">
         <v>76.989999999999995</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>66.28</v>
       </c>
       <c r="C6" s="4">
@@ -1303,13 +1312,13 @@
       <c r="D6" s="4">
         <v>72.900000000000006</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>82.98</v>
       </c>
       <c r="C7" s="4">
@@ -1318,7 +1327,7 @@
       <c r="D7" s="4">
         <v>81.89</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1336,22 +1345,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="9">
         <v>2017</v>
       </c>
       <c r="C1" s="6">
@@ -1361,15 +1373,12 @@
         <v>2015</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>55.1</v>
       </c>
       <c r="C2" s="3">
@@ -1378,7 +1387,7 @@
       <c r="D2" s="3">
         <v>64.540000000000006</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="7"/>
       <c r="K2" t="s">
         <v>36</v>
       </c>
@@ -1390,7 +1399,7 @@
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>37.1</v>
       </c>
       <c r="C3" s="3">
@@ -1399,7 +1408,7 @@
       <c r="D3" s="3">
         <v>69.569999999999993</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
       <c r="K3" t="s">
         <v>37</v>
       </c>
@@ -1411,7 +1420,7 @@
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>32.46</v>
       </c>
       <c r="C4" s="3">
@@ -1420,7 +1429,7 @@
       <c r="D4" s="3">
         <v>61.15</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
       <c r="K4">
         <v>1</v>
       </c>
@@ -1438,7 +1447,7 @@
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>35.79</v>
       </c>
       <c r="C5" s="3">
@@ -1447,13 +1456,13 @@
       <c r="D5" s="3">
         <v>79.05</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>40.11</v>
       </c>
       <c r="C6" s="4">
@@ -1462,7 +1471,7 @@
       <c r="D6" s="4">
         <v>68.58</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
       <c r="K6">
         <v>70</v>
       </c>
@@ -1471,10 +1480,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>83.56</v>
       </c>
       <c r="C7" s="4">
@@ -1483,10 +1492,80 @@
       <c r="D7" s="4">
         <v>70.430000000000007</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7">
+        <v>63</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8">
+        <v>62</v>
+      </c>
+      <c r="L8">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>40</v>
+      </c>
+      <c r="N8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>68</v>
+      </c>
+      <c r="L9">
+        <v>55</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>70</v>
+      </c>
+      <c r="L10">
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f ca="1">IF(K13&gt;=63,1,IF(AND(K13&lt;63,K13&gt;=60),0.75,5))</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/nilai_smp_tidore.xlsx
+++ b/nilai_smp_tidore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppdb2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\ppdb2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Swasta</t>
   </si>
@@ -149,6 +149,36 @@
   </si>
   <si>
     <t>MATE</t>
+  </si>
+  <si>
+    <t>RANGE NILAI</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
 </sst>
 </file>
@@ -180,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,12 +250,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,6 +325,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1345,15 +1400,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
@@ -1430,18 +1486,6 @@
         <v>61.15</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.75</v>
-      </c>
-      <c r="M4">
-        <v>0.5</v>
-      </c>
-      <c r="N4">
-        <v>0.25</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1472,11 +1516,20 @@
         <v>68.58</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="K6">
-        <v>70</v>
-      </c>
-      <c r="N6">
-        <v>32</v>
+      <c r="J6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1493,78 +1546,220 @@
         <v>70.430000000000007</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="20">
         <v>63</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="20">
         <v>60</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="20">
         <v>55</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="20">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="20">
         <v>62</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="20">
         <v>55</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="20">
         <v>40</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="20">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="20">
         <v>68</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="20">
         <v>55</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="20">
         <v>40</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="20">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="20">
         <v>70</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="20">
         <v>55</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="20">
         <v>40</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="20">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K13">
-        <f ca="1">IF(K13&gt;=63,1,IF(AND(K13&lt;63,K13&gt;=60),0.75,5))</f>
-        <v>0</v>
+      <c r="J13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <v>56</v>
+      </c>
+      <c r="M14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>32</v>
+      </c>
+      <c r="M16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <v>55</v>
+      </c>
+      <c r="L17">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <f>IF($K14&gt;=63,1,IF(AND($K14&lt;63,$K14&gt;=60),0.75,IF(AND($K14&lt;60,$K14&gt;=55),0.5,IF(AND($K14&lt;55,$K14&gt;=53),0.25,0))))</f>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f>IF($K14&gt;=63,1,IF(AND($K14&lt;63,$K14&gt;=60),0.75,IF(AND($K14&lt;60,$K14&gt;=55),0.5,IF(AND($K14&lt;55,$K14&gt;=53),0.25,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:L25" si="0">IF($K15&gt;=63,1,IF(AND($K15&lt;63,$K15&gt;=60),0.75,IF(AND($K15&lt;60,$K15&gt;=55),0.5,IF(AND($K15&lt;55,$K15&gt;=53),0.25,0))))</f>
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
